--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -7,7 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="simulations.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Simulation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Simulation1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Simulation2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Simulation3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Simulation4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Simulation5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Simulation6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Simulation7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Simulation8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Simulation9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Simulation10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Simulation11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Simulation12" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,14 +435,1226 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hello</t>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Génération</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus départ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nombre d'individus en vie</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Nombre de naissances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Nombre de morts</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Moyenne taille individus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Moyenne vue individus</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Moyenne vitesse individus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nombre de morts total</t>
         </is>
       </c>
     </row>

--- a/simulations.xlsx
+++ b/simulations.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,93 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>63.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
